--- a/Checklist.xlsx
+++ b/Checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bernh\Nextcloud\Projekte\1901-TechnikumWien\LVs\BIF3-SWEN1_WS2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nahash\source\swen\MonsterTradingCardsGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6654F465-E96B-4F58-9905-119C7AA41DAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CDD29E8-6F3C-4B78-8F31-EE1DF47F5196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="-15" windowWidth="25440" windowHeight="15390" xr2:uid="{88369686-F968-45CB-887F-E38F2E727DD7}"/>
+    <workbookView xWindow="1335" yWindow="1305" windowWidth="21600" windowHeight="11385" xr2:uid="{88369686-F968-45CB-887F-E38F2E727DD7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
   <si>
     <t>Checklist MonsterTradingCardsGame</t>
   </si>
@@ -165,9 +165,6 @@
     <t>Contains link to GIT</t>
   </si>
   <si>
-    <t>Sum Points</t>
-  </si>
-  <si>
     <t>Implements a server listening to incoming clients</t>
   </si>
   <si>
@@ -175,6 +172,27 @@
   </si>
   <si>
     <t>Describes design</t>
+  </si>
+  <si>
+    <t>Sum Points (gesamt + must haves (positiv))</t>
+  </si>
+  <si>
+    <t>Sum Points (must haves)</t>
+  </si>
+  <si>
+    <t>Sum Points (Features + must haves)</t>
+  </si>
+  <si>
+    <t>Sum Points (Features)</t>
+  </si>
+  <si>
+    <t>fehlt</t>
+  </si>
+  <si>
+    <t>da</t>
+  </si>
+  <si>
+    <t>von</t>
   </si>
 </sst>
 </file>
@@ -605,10 +623,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D58600B0-3567-4A3D-A785-925E0537D06D}">
-  <dimension ref="A1:D54"/>
+  <dimension ref="A1:D58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -656,15 +674,15 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -680,15 +698,15 @@
         <v>9</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -696,7 +714,7 @@
         <v>10</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -704,7 +722,7 @@
         <v>11</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -748,6 +766,9 @@
       <c r="A22" s="6" t="s">
         <v>18</v>
       </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
       <c r="C22" s="6">
         <v>3</v>
       </c>
@@ -756,6 +777,9 @@
       <c r="A23" s="6" t="s">
         <v>19</v>
       </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
       <c r="C23" s="6">
         <v>3</v>
       </c>
@@ -764,6 +788,9 @@
       <c r="A24" s="6" t="s">
         <v>20</v>
       </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
       <c r="C24" s="6">
         <v>3</v>
       </c>
@@ -772,6 +799,9 @@
       <c r="A25" s="6" t="s">
         <v>21</v>
       </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
       <c r="C25" s="6">
         <v>3</v>
       </c>
@@ -867,6 +897,9 @@
       <c r="A40" s="6" t="s">
         <v>33</v>
       </c>
+      <c r="B40">
+        <v>6</v>
+      </c>
       <c r="C40" s="6">
         <v>8</v>
       </c>
@@ -903,7 +936,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C47" s="6">
         <v>1</v>
@@ -917,7 +950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>39</v>
       </c>
@@ -925,7 +958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>40</v>
       </c>
@@ -933,7 +966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>41</v>
       </c>
@@ -941,7 +974,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>42</v>
       </c>
@@ -949,17 +982,84 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="54" spans="1:3" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A54" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B54" s="2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="6"/>
+      <c r="C53" s="6"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>51</v>
+      </c>
+      <c r="C54" t="s">
+        <v>52</v>
+      </c>
+      <c r="D54" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A55" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B55" s="2">
         <f>IF(MIN(B9:B16)=1,SUM(B21:B52),0)</f>
         <v>0</v>
       </c>
-      <c r="C54" s="2">
+      <c r="C55" s="2">
         <f>SUM(C21:C52)</f>
         <v>60</v>
+      </c>
+      <c r="D55" s="2">
+        <f>C55-B55</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A56" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B56" s="2">
+        <f>SUM(B9:B54)</f>
+        <v>24</v>
+      </c>
+      <c r="C56" s="6">
+        <v>60</v>
+      </c>
+      <c r="D56" s="2">
+        <f t="shared" ref="D56:D58" si="0">C56-B56</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A57" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B57">
+        <f>SUM(B9:B16)</f>
+        <v>6</v>
+      </c>
+      <c r="C57">
+        <v>8</v>
+      </c>
+      <c r="D57" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A58" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B58">
+        <f>SUM(B21:B53)</f>
+        <v>18</v>
+      </c>
+      <c r="C58">
+        <v>52</v>
+      </c>
+      <c r="D58" s="2">
+        <f t="shared" si="0"/>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -974,6 +1074,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100495F7CC252815B47896F98900E10984C" ma:contentTypeVersion="2" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="afe1b3b164495dc81fdbcdcad6ec8b68">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="207955a2-a3fc-4582-b2ea-e4c7d1fb6048" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3b6a42bf87c3f8727d31c248fc1697f6" ns2:_="">
     <xsd:import namespace="207955a2-a3fc-4582-b2ea-e4c7d1fb6048"/>
@@ -1105,22 +1220,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FFD0135-03B1-4A6A-9DC8-B4D791C0671E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="207955a2-a3fc-4582-b2ea-e4c7d1fb6048"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B871BF9-5772-4B74-B6DF-7878EF29873D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0824ED0-660A-437B-A039-7835C5DD208D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1136,28 +1260,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B871BF9-5772-4B74-B6DF-7878EF29873D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FFD0135-03B1-4A6A-9DC8-B4D791C0671E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="207955a2-a3fc-4582-b2ea-e4c7d1fb6048"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Checklist.xlsx
+++ b/Checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nahash\source\swen\MonsterTradingCardsGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CDD29E8-6F3C-4B78-8F31-EE1DF47F5196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFAB3585-FD9F-4819-AE08-DC8B137C7A96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1335" yWindow="1305" windowWidth="21600" windowHeight="11385" xr2:uid="{88369686-F968-45CB-887F-E38F2E727DD7}"/>
+    <workbookView xWindow="1365" yWindow="1320" windowWidth="21600" windowHeight="11385" xr2:uid="{88369686-F968-45CB-887F-E38F2E727DD7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -625,8 +625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D58600B0-3567-4A3D-A785-925E0537D06D}">
   <dimension ref="A1:D58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="G56" sqref="G56"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -810,6 +810,9 @@
       <c r="A26" s="6" t="s">
         <v>22</v>
       </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
       <c r="C26" s="6">
         <v>3</v>
       </c>
@@ -970,6 +973,9 @@
       <c r="A51" s="6" t="s">
         <v>41</v>
       </c>
+      <c r="B51">
+        <v>0.5</v>
+      </c>
       <c r="C51" s="6">
         <v>0.5</v>
       </c>
@@ -978,6 +984,9 @@
       <c r="A52" s="6" t="s">
         <v>42</v>
       </c>
+      <c r="B52">
+        <v>0.5</v>
+      </c>
       <c r="C52" s="6">
         <v>0.5</v>
       </c>
@@ -1020,14 +1029,14 @@
       </c>
       <c r="B56" s="2">
         <f>SUM(B9:B54)</f>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C56" s="6">
         <v>60</v>
       </c>
       <c r="D56" s="2">
         <f t="shared" ref="D56:D58" si="0">C56-B56</f>
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="21" x14ac:dyDescent="0.35">
@@ -1052,14 +1061,14 @@
       </c>
       <c r="B58">
         <f>SUM(B21:B53)</f>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C58">
         <v>52</v>
       </c>
       <c r="D58" s="2">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Checklist.xlsx
+++ b/Checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nahash\source\swen\MonsterTradingCardsGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFAB3585-FD9F-4819-AE08-DC8B137C7A96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA46F14-AD5B-4B0A-BF25-617056178075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1365" yWindow="1320" windowWidth="21600" windowHeight="11385" xr2:uid="{88369686-F968-45CB-887F-E38F2E727DD7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{88369686-F968-45CB-887F-E38F2E727DD7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -183,9 +183,6 @@
     <t>Sum Points (Features + must haves)</t>
   </si>
   <si>
-    <t>Sum Points (Features)</t>
-  </si>
-  <si>
     <t>fehlt</t>
   </si>
   <si>
@@ -193,6 +190,9 @@
   </si>
   <si>
     <t>von</t>
+  </si>
+  <si>
+    <t>Knight water fehlt</t>
   </si>
 </sst>
 </file>
@@ -623,10 +623,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D58600B0-3567-4A3D-A785-925E0537D06D}">
-  <dimension ref="A1:D58"/>
+  <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -690,7 +690,7 @@
         <v>8</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -758,6 +758,9 @@
       <c r="A21" s="6" t="s">
         <v>17</v>
       </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
       <c r="C21" s="6">
         <v>3</v>
       </c>
@@ -828,6 +831,9 @@
       <c r="A29" s="6" t="s">
         <v>24</v>
       </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
       <c r="C29" s="6">
         <v>4</v>
       </c>
@@ -836,6 +842,9 @@
       <c r="A30" s="6" t="s">
         <v>25</v>
       </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
       <c r="C30" s="6">
         <v>2</v>
       </c>
@@ -844,6 +853,9 @@
       <c r="A31" s="6" t="s">
         <v>26</v>
       </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
       <c r="C31" s="6">
         <v>3</v>
       </c>
@@ -856,23 +868,29 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C33" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>29</v>
       </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
       <c r="C34" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:3" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>30</v>
       </c>
@@ -881,22 +899,25 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:3" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B38"/>
       <c r="C38"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>32</v>
       </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
       <c r="C39" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>33</v>
       </c>
@@ -907,7 +928,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>34</v>
       </c>
@@ -915,7 +936,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>35</v>
       </c>
@@ -923,21 +944,22 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:3" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B44"/>
       <c r="C44" s="6"/>
     </row>
-    <row r="46" spans="1:3" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I46"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>45</v>
       </c>
@@ -945,7 +967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>38</v>
       </c>
@@ -997,13 +1019,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
+        <v>50</v>
+      </c>
+      <c r="C54" t="s">
         <v>51</v>
       </c>
-      <c r="C54" t="s">
-        <v>52</v>
-      </c>
       <c r="D54" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="55" spans="1:4" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.35">
@@ -1015,7 +1037,7 @@
         <v>0</v>
       </c>
       <c r="C55" s="2">
-        <f>SUM(C21:C52)</f>
+        <f>SUM(C21:C26,C29:C34,C36,C39:C42,C47:C52)</f>
         <v>60</v>
       </c>
       <c r="D55" s="2">
@@ -1028,15 +1050,15 @@
         <v>48</v>
       </c>
       <c r="B56" s="2">
-        <f>SUM(B9:B54)</f>
-        <v>28</v>
+        <f>SUM(B21:B26,B29:B34,B36,B39:B42,B47:B53,B44)</f>
+        <v>36</v>
       </c>
       <c r="C56" s="6">
         <v>60</v>
       </c>
       <c r="D56" s="2">
-        <f t="shared" ref="D56:D58" si="0">C56-B56</f>
-        <v>32</v>
+        <f t="shared" ref="D56:D57" si="0">C56-B56</f>
+        <v>24</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="21" x14ac:dyDescent="0.35">
@@ -1045,30 +1067,14 @@
       </c>
       <c r="B57">
         <f>SUM(B9:B16)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C57">
         <v>8</v>
       </c>
       <c r="D57" s="2">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A58" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B58">
-        <f>SUM(B21:B53)</f>
-        <v>22</v>
-      </c>
-      <c r="C58">
-        <v>52</v>
-      </c>
-      <c r="D58" s="2">
-        <f t="shared" si="0"/>
-        <v>30</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1083,21 +1089,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100495F7CC252815B47896F98900E10984C" ma:contentTypeVersion="2" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="afe1b3b164495dc81fdbcdcad6ec8b68">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="207955a2-a3fc-4582-b2ea-e4c7d1fb6048" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3b6a42bf87c3f8727d31c248fc1697f6" ns2:_="">
     <xsd:import namespace="207955a2-a3fc-4582-b2ea-e4c7d1fb6048"/>
@@ -1229,31 +1220,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FFD0135-03B1-4A6A-9DC8-B4D791C0671E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="207955a2-a3fc-4582-b2ea-e4c7d1fb6048"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B871BF9-5772-4B74-B6DF-7878EF29873D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0824ED0-660A-437B-A039-7835C5DD208D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1269,4 +1251,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B871BF9-5772-4B74-B6DF-7878EF29873D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FFD0135-03B1-4A6A-9DC8-B4D791C0671E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="207955a2-a3fc-4582-b2ea-e4c7d1fb6048"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Checklist.xlsx
+++ b/Checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nahash\source\swen\MonsterTradingCardsGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA46F14-AD5B-4B0A-BF25-617056178075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FDAC9F0-AC77-4C43-9D59-EDB6FE739AE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{88369686-F968-45CB-887F-E38F2E727DD7}"/>
   </bookViews>
@@ -625,8 +625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D58600B0-3567-4A3D-A785-925E0537D06D}">
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -733,12 +733,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>14</v>
       </c>
@@ -749,12 +749,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>17</v>
       </c>
@@ -764,8 +764,20 @@
       <c r="C21" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21">
+        <f>SUM(B21:B26)</f>
+        <v>18</v>
+      </c>
+      <c r="F21">
+        <f>SUM(C21:C26)</f>
+        <v>18</v>
+      </c>
+      <c r="G21">
+        <f>F21-E21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>18</v>
       </c>
@@ -776,7 +788,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>19</v>
       </c>
@@ -787,7 +799,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>20</v>
       </c>
@@ -798,7 +810,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>21</v>
       </c>
@@ -809,7 +821,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>22</v>
       </c>
@@ -820,14 +832,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:4" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B28"/>
       <c r="C28"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>24</v>
       </c>
@@ -837,8 +849,20 @@
       <c r="C29" s="6">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29">
+        <f>SUM(B29:B34)</f>
+        <v>9</v>
+      </c>
+      <c r="F29">
+        <f>SUM(C29:C34)</f>
+        <v>14</v>
+      </c>
+      <c r="G29">
+        <f>F29-E29</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>25</v>
       </c>
@@ -849,7 +873,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>26</v>
       </c>
@@ -860,7 +884,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>27</v>
       </c>
@@ -898,6 +922,18 @@
       <c r="C36" s="6">
         <v>3</v>
       </c>
+      <c r="E36">
+        <f>SUM(B36)</f>
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <f>SUM(C36)</f>
+        <v>3</v>
+      </c>
+      <c r="G36">
+        <f>F36-E36</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="38" spans="1:9" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
@@ -916,6 +952,18 @@
       <c r="C39" s="6">
         <v>2</v>
       </c>
+      <c r="E39">
+        <f>SUM(B39:B42)</f>
+        <v>8</v>
+      </c>
+      <c r="F39">
+        <f>SUM(C39:C42)</f>
+        <v>20</v>
+      </c>
+      <c r="G39">
+        <f>F39-E39</f>
+        <v>12</v>
+      </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
@@ -965,6 +1013,18 @@
       </c>
       <c r="C47" s="6">
         <v>1</v>
+      </c>
+      <c r="E47">
+        <f>SUM(B47:B52)</f>
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <f>SUM(C47:C52)</f>
+        <v>5</v>
+      </c>
+      <c r="G47">
+        <f>F47-E47</f>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -1089,6 +1149,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100495F7CC252815B47896F98900E10984C" ma:contentTypeVersion="2" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="afe1b3b164495dc81fdbcdcad6ec8b68">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="207955a2-a3fc-4582-b2ea-e4c7d1fb6048" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3b6a42bf87c3f8727d31c248fc1697f6" ns2:_="">
     <xsd:import namespace="207955a2-a3fc-4582-b2ea-e4c7d1fb6048"/>
@@ -1220,22 +1295,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FFD0135-03B1-4A6A-9DC8-B4D791C0671E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="207955a2-a3fc-4582-b2ea-e4c7d1fb6048"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B871BF9-5772-4B74-B6DF-7878EF29873D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0824ED0-660A-437B-A039-7835C5DD208D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1251,28 +1335,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B871BF9-5772-4B74-B6DF-7878EF29873D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FFD0135-03B1-4A6A-9DC8-B4D791C0671E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="207955a2-a3fc-4582-b2ea-e4c7d1fb6048"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Checklist.xlsx
+++ b/Checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nahash\source\swen\MonsterTradingCardsGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FDAC9F0-AC77-4C43-9D59-EDB6FE739AE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB231DFA-9569-4E76-82A5-EF63741A4AD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{88369686-F968-45CB-887F-E38F2E727DD7}"/>
   </bookViews>
@@ -625,8 +625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D58600B0-3567-4A3D-A785-925E0537D06D}">
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -844,14 +844,14 @@
         <v>24</v>
       </c>
       <c r="B29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C29" s="6">
         <v>4</v>
       </c>
       <c r="E29">
         <f>SUM(B29:B34)</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F29">
         <f>SUM(C29:C34)</f>
@@ -859,7 +859,7 @@
       </c>
       <c r="G29">
         <f>F29-E29</f>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -954,7 +954,7 @@
       </c>
       <c r="E39">
         <f>SUM(B39:B42)</f>
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F39">
         <f>SUM(C39:C42)</f>
@@ -962,7 +962,7 @@
       </c>
       <c r="G39">
         <f>F39-E39</f>
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -970,7 +970,7 @@
         <v>33</v>
       </c>
       <c r="B40">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C40" s="6">
         <v>8</v>
@@ -988,6 +988,9 @@
       <c r="A42" s="6" t="s">
         <v>35</v>
       </c>
+      <c r="B42">
+        <v>5</v>
+      </c>
       <c r="C42" s="6">
         <v>5</v>
       </c>
@@ -1111,14 +1114,14 @@
       </c>
       <c r="B56" s="2">
         <f>SUM(B21:B26,B29:B34,B36,B39:B42,B47:B53,B44)</f>
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C56" s="6">
         <v>60</v>
       </c>
       <c r="D56" s="2">
         <f t="shared" ref="D56:D57" si="0">C56-B56</f>
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="21" x14ac:dyDescent="0.35">
@@ -1149,21 +1152,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100495F7CC252815B47896F98900E10984C" ma:contentTypeVersion="2" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="afe1b3b164495dc81fdbcdcad6ec8b68">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="207955a2-a3fc-4582-b2ea-e4c7d1fb6048" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3b6a42bf87c3f8727d31c248fc1697f6" ns2:_="">
     <xsd:import namespace="207955a2-a3fc-4582-b2ea-e4c7d1fb6048"/>
@@ -1295,31 +1283,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FFD0135-03B1-4A6A-9DC8-B4D791C0671E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="207955a2-a3fc-4582-b2ea-e4c7d1fb6048"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B871BF9-5772-4B74-B6DF-7878EF29873D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0824ED0-660A-437B-A039-7835C5DD208D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1335,4 +1314,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B871BF9-5772-4B74-B6DF-7878EF29873D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FFD0135-03B1-4A6A-9DC8-B4D791C0671E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="207955a2-a3fc-4582-b2ea-e4c7d1fb6048"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Checklist.xlsx
+++ b/Checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nahash\source\swen\MonsterTradingCardsGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB231DFA-9569-4E76-82A5-EF63741A4AD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F19CDE16-F2E4-4760-B80C-4E2515F13405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{88369686-F968-45CB-887F-E38F2E727DD7}"/>
+    <workbookView xWindow="-28920" yWindow="2625" windowWidth="29040" windowHeight="15840" xr2:uid="{88369686-F968-45CB-887F-E38F2E727DD7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -625,8 +625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D58600B0-3567-4A3D-A785-925E0537D06D}">
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1152,6 +1152,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100495F7CC252815B47896F98900E10984C" ma:contentTypeVersion="2" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="afe1b3b164495dc81fdbcdcad6ec8b68">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="207955a2-a3fc-4582-b2ea-e4c7d1fb6048" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3b6a42bf87c3f8727d31c248fc1697f6" ns2:_="">
     <xsd:import namespace="207955a2-a3fc-4582-b2ea-e4c7d1fb6048"/>
@@ -1283,22 +1298,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FFD0135-03B1-4A6A-9DC8-B4D791C0671E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="207955a2-a3fc-4582-b2ea-e4c7d1fb6048"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B871BF9-5772-4B74-B6DF-7878EF29873D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0824ED0-660A-437B-A039-7835C5DD208D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1314,28 +1338,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B871BF9-5772-4B74-B6DF-7878EF29873D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FFD0135-03B1-4A6A-9DC8-B4D791C0671E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="207955a2-a3fc-4582-b2ea-e4c7d1fb6048"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Checklist.xlsx
+++ b/Checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nahash\source\swen\MonsterTradingCardsGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F19CDE16-F2E4-4760-B80C-4E2515F13405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2E1306B-1D31-4CB1-89D5-AB36CECFE3F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="2625" windowWidth="29040" windowHeight="15840" xr2:uid="{88369686-F968-45CB-887F-E38F2E727DD7}"/>
   </bookViews>
@@ -625,8 +625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D58600B0-3567-4A3D-A785-925E0537D06D}">
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -918,13 +918,15 @@
       <c r="A36" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B36"/>
+      <c r="B36">
+        <v>3</v>
+      </c>
       <c r="C36" s="6">
         <v>3</v>
       </c>
       <c r="E36">
         <f>SUM(B36)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <f>SUM(C36)</f>
@@ -932,7 +934,7 @@
       </c>
       <c r="G36">
         <f>F36-E36</f>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:9" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -1114,14 +1116,14 @@
       </c>
       <c r="B56" s="2">
         <f>SUM(B21:B26,B29:B34,B36,B39:B42,B47:B53,B44)</f>
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C56" s="6">
         <v>60</v>
       </c>
       <c r="D56" s="2">
         <f t="shared" ref="D56:D57" si="0">C56-B56</f>
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="21" x14ac:dyDescent="0.35">
@@ -1152,21 +1154,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100495F7CC252815B47896F98900E10984C" ma:contentTypeVersion="2" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="afe1b3b164495dc81fdbcdcad6ec8b68">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="207955a2-a3fc-4582-b2ea-e4c7d1fb6048" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3b6a42bf87c3f8727d31c248fc1697f6" ns2:_="">
     <xsd:import namespace="207955a2-a3fc-4582-b2ea-e4c7d1fb6048"/>
@@ -1298,31 +1285,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FFD0135-03B1-4A6A-9DC8-B4D791C0671E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="207955a2-a3fc-4582-b2ea-e4c7d1fb6048"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B871BF9-5772-4B74-B6DF-7878EF29873D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0824ED0-660A-437B-A039-7835C5DD208D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1338,4 +1316,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B871BF9-5772-4B74-B6DF-7878EF29873D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FFD0135-03B1-4A6A-9DC8-B4D791C0671E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="207955a2-a3fc-4582-b2ea-e4c7d1fb6048"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Checklist.xlsx
+++ b/Checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nahash\source\swen\MonsterTradingCardsGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2E1306B-1D31-4CB1-89D5-AB36CECFE3F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{741F7873-37C1-4428-AB38-3C634DB05AE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="2625" windowWidth="29040" windowHeight="15840" xr2:uid="{88369686-F968-45CB-887F-E38F2E727DD7}"/>
+    <workbookView xWindow="1305" yWindow="1875" windowWidth="21600" windowHeight="11385" xr2:uid="{88369686-F968-45CB-887F-E38F2E727DD7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
   <si>
     <t>Checklist MonsterTradingCardsGame</t>
   </si>
@@ -190,9 +190,6 @@
   </si>
   <si>
     <t>von</t>
-  </si>
-  <si>
-    <t>Knight water fehlt</t>
   </si>
 </sst>
 </file>
@@ -625,8 +622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D58600B0-3567-4A3D-A785-925E0537D06D}">
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -730,7 +727,7 @@
         <v>12</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.35">
@@ -851,7 +848,7 @@
       </c>
       <c r="E29">
         <f>SUM(B29:B34)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29">
         <f>SUM(C29:C34)</f>
@@ -859,7 +856,7 @@
       </c>
       <c r="G29">
         <f>F29-E29</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -896,11 +893,11 @@
       <c r="A33" s="6" t="s">
         <v>28</v>
       </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
       <c r="C33" s="6">
         <v>1</v>
-      </c>
-      <c r="D33" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -1021,7 +1018,7 @@
       </c>
       <c r="E47">
         <f>SUM(B47:B52)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F47">
         <f>SUM(C47:C52)</f>
@@ -1029,13 +1026,16 @@
       </c>
       <c r="G47">
         <f>F47-E47</f>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>38</v>
       </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
       <c r="C48" s="6">
         <v>1</v>
       </c>
@@ -1044,6 +1044,9 @@
       <c r="A49" s="6" t="s">
         <v>39</v>
       </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
       <c r="C49" s="6">
         <v>1</v>
       </c>
@@ -1052,6 +1055,9 @@
       <c r="A50" s="6" t="s">
         <v>40</v>
       </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
       <c r="C50" s="6">
         <v>1</v>
       </c>
@@ -1099,7 +1105,7 @@
       </c>
       <c r="B55" s="2">
         <f>IF(MIN(B9:B16)=1,SUM(B21:B52),0)</f>
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="C55" s="2">
         <f>SUM(C21:C26,C29:C34,C36,C39:C42,C47:C52)</f>
@@ -1107,7 +1113,7 @@
       </c>
       <c r="D55" s="2">
         <f>C55-B55</f>
-        <v>60</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="21" x14ac:dyDescent="0.35">
@@ -1116,14 +1122,14 @@
       </c>
       <c r="B56" s="2">
         <f>SUM(B21:B26,B29:B34,B36,B39:B42,B47:B53,B44)</f>
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C56" s="6">
         <v>60</v>
       </c>
       <c r="D56" s="2">
         <f t="shared" ref="D56:D57" si="0">C56-B56</f>
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="21" x14ac:dyDescent="0.35">
@@ -1132,14 +1138,14 @@
       </c>
       <c r="B57">
         <f>SUM(B9:B16)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57">
         <v>8</v>
       </c>
       <c r="D57" s="2">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1154,6 +1160,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100495F7CC252815B47896F98900E10984C" ma:contentTypeVersion="2" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="afe1b3b164495dc81fdbcdcad6ec8b68">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="207955a2-a3fc-4582-b2ea-e4c7d1fb6048" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3b6a42bf87c3f8727d31c248fc1697f6" ns2:_="">
     <xsd:import namespace="207955a2-a3fc-4582-b2ea-e4c7d1fb6048"/>
@@ -1285,22 +1306,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FFD0135-03B1-4A6A-9DC8-B4D791C0671E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="207955a2-a3fc-4582-b2ea-e4c7d1fb6048"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B871BF9-5772-4B74-B6DF-7878EF29873D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0824ED0-660A-437B-A039-7835C5DD208D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1316,28 +1346,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B871BF9-5772-4B74-B6DF-7878EF29873D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FFD0135-03B1-4A6A-9DC8-B4D791C0671E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="207955a2-a3fc-4582-b2ea-e4c7d1fb6048"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>